--- a/Datos/Anuario2024/040304_TransaccionesInmobiliarias.xlsx
+++ b/Datos/Anuario2024/040304_TransaccionesInmobiliarias.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="41" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="42" r:id="rId3"/>
+    <sheet name="2" sheetId="44" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -24,7 +30,9 @@
     <definedName name="_R1_6">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="0">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_4">'[2]4.5'!$A$1:$H$6</definedName>
+    <definedName name="_R2_5" localSheetId="0">'[1]4.6'!$A$1:$C$6</definedName>
     <definedName name="_R2_5">'[2]4.6'!$A$1:$C$6</definedName>
     <definedName name="_R3_1">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
@@ -34,12 +42,15 @@
     <definedName name="_R3_6">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
     <definedName name="_R3_8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
@@ -84,92 +95,166 @@
     <definedName name="R_6.5">#REF!</definedName>
     <definedName name="R_6.6">#REF!</definedName>
     <definedName name="R_6.7">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="0">'[1]4.5'!$A$1:$H$6</definedName>
-    <definedName name="_R2_5" localSheetId="0">'[1]4.6'!$A$1:$C$6</definedName>
-    <definedName name="_R3_9" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId123" roundtripDataSignature="AMtx7mi14629vqxTlXuNpB96wxU93wUxZw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Málaga</t>
+  </si>
+  <si>
+    <t>Primer trimestre</t>
+  </si>
+  <si>
+    <t>Segundo trimestre</t>
+  </si>
+  <si>
+    <t>Tercer trimestre</t>
+  </si>
+  <si>
+    <t>Cuarto trimestre</t>
+  </si>
+  <si>
+    <t>Fuente: Ministerio de Transportes, Movilidad y Agenda Urbana.</t>
+  </si>
+  <si>
+    <t>Total Nacional</t>
+  </si>
+  <si>
+    <t>Vivienda nueva</t>
+  </si>
+  <si>
+    <t>Vivienda segunda mano</t>
+  </si>
+  <si>
+    <t>Según antigüedad</t>
+  </si>
+  <si>
+    <t>Vivienda libre</t>
+  </si>
+  <si>
+    <t>Vivienda protegida</t>
+  </si>
+  <si>
+    <t>TRANSACCIONES INMOBILIARIAS</t>
+  </si>
+  <si>
+    <t>Según nivel de protección</t>
+  </si>
+  <si>
+    <t>1. Transacciones inmobiliarias de viviendas según tipo. 2023</t>
+  </si>
+  <si>
+    <t>2. Transacciones inmobiliarias de viviendas según tipo y trimestre. València. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -204,95 +289,169 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7030A0"/>
+      <color rgb="FFF9D7F7"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="381000" y="381000"/>
+          <a:ext cx="5048250" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -460,8 +619,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -898,769 +1057,672 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>TRANSACCIONES INMOBILIARIAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.85546875" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="2" max="9"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>1. Transacciones inmobiliarias de viviendas según tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>Total Nacional</t>
-        </is>
-      </c>
-      <c r="C3" s="14" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-      <c r="D3" s="15" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="E3" s="15" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="F3" s="15" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G3" s="15" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="H3" s="15" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I3" s="15" t="inlineStr">
-        <is>
-          <t>Málaga</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="18">
         <f>B6+B7</f>
-        <v/>
+        <v>638591</v>
       </c>
       <c r="C4" s="18">
-        <f>C6+C7</f>
-        <v/>
+        <f t="shared" ref="C4:I4" si="0">C6+C7</f>
+        <v>104239</v>
       </c>
       <c r="D4" s="18">
-        <f>D6+D7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>11219</v>
       </c>
       <c r="E4" s="18">
-        <f>E6+E7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>39751</v>
       </c>
       <c r="F4" s="18">
-        <f>F6+F7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>15834</v>
       </c>
       <c r="G4" s="18">
-        <f>G6+G7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8235</v>
       </c>
       <c r="H4" s="18">
-        <f>H6+H7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7786</v>
       </c>
       <c r="I4" s="18">
-        <f>I6+I7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="24" t="inlineStr">
-        <is>
-          <t>Según antigüedad</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="19" t="n"/>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="19" t="n"/>
-      <c r="F5" s="19" t="n"/>
-      <c r="G5" s="19" t="n"/>
-      <c r="H5" s="19" t="n"/>
-      <c r="I5" s="19" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="26" t="inlineStr">
-        <is>
-          <t>Vivienda nueva</t>
-        </is>
-      </c>
-      <c r="B6" s="21" t="n">
+        <f t="shared" si="0"/>
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="20">
         <v>60265</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="21">
         <v>10199</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="21">
         <v>1533</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="21">
         <v>3008</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="21">
         <v>710</v>
       </c>
-      <c r="G6" s="21" t="n">
+      <c r="G6" s="21">
         <v>648</v>
       </c>
-      <c r="H6" s="21" t="n">
+      <c r="H6" s="21">
         <v>1032</v>
       </c>
-      <c r="I6" s="21" t="n">
+      <c r="I6" s="21">
         <v>772</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="27" t="inlineStr">
-        <is>
-          <t>Vivienda segunda mano</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="19">
         <v>578326</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="19">
         <v>94040</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="19">
         <v>9686</v>
       </c>
-      <c r="E7" s="19" t="n">
+      <c r="E7" s="19">
         <v>36743</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="19">
         <v>15124</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="19">
         <v>7587</v>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="H7" s="19">
         <v>6754</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="19">
         <v>5966</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="25" t="inlineStr">
-        <is>
-          <t>Según nivel de protección</t>
-        </is>
-      </c>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" s="21" t="n"/>
-      <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
-      <c r="F8" s="21" t="n"/>
-      <c r="G8" s="21" t="n"/>
-      <c r="H8" s="21" t="n"/>
-      <c r="I8" s="21" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="27" t="inlineStr">
-        <is>
-          <t>Vivienda libre</t>
-        </is>
-      </c>
-      <c r="B9" s="19" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="19">
         <v>618652</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="19">
         <v>100531</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>10554</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="19">
         <v>38844</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="19">
         <v>15707</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19">
         <v>7672</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="19">
         <v>7585</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="19">
         <v>6519</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="26" t="inlineStr">
-        <is>
-          <t>Vivienda protegida</t>
-        </is>
-      </c>
-      <c r="B10" s="21" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="21">
         <v>19939</v>
       </c>
-      <c r="C10" s="21" t="n">
+      <c r="C10" s="21">
         <v>3708</v>
       </c>
-      <c r="D10" s="21" t="n">
+      <c r="D10" s="21">
         <v>665</v>
       </c>
-      <c r="E10" s="21" t="n">
+      <c r="E10" s="21">
         <v>907</v>
       </c>
-      <c r="F10" s="21" t="n">
+      <c r="F10" s="21">
         <v>127</v>
       </c>
-      <c r="G10" s="21" t="n">
+      <c r="G10" s="21">
         <v>563</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="21">
         <v>201</v>
       </c>
-      <c r="I10" s="21" t="n">
+      <c r="I10" s="21">
         <v>219</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Ministerio de Transportes, Movilidad y Agenda Urbana.</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="n"/>
-      <c r="C11" s="21" t="n"/>
-      <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
-      <c r="F11" s="21" t="n"/>
-      <c r="G11" s="21" t="n"/>
-      <c r="H11" s="21" t="n"/>
-      <c r="I11" s="21" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="22" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="C15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
-      <c r="G17" s="8" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="8" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
-      <c r="G18" s="8" t="n"/>
-      <c r="H18" s="8" t="n"/>
-      <c r="I18" s="8" t="n"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.85546875" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="2" max="6"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>2. Transacciones inmobiliarias de viviendas según tipo y trimestre. València. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="G1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="G2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="14" t="inlineStr">
-        <is>
-          <t>Primer trimestre</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="inlineStr">
-        <is>
-          <t>Segundo trimestre</t>
-        </is>
-      </c>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>Tercer trimestre</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>Cuarto trimestre</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="28" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="3"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="5">
         <f>SUM(C4:F4)</f>
-        <v/>
+        <v>11219</v>
       </c>
       <c r="C4" s="11">
         <f>C6+C7</f>
-        <v/>
+        <v>3073</v>
       </c>
       <c r="D4" s="11">
-        <f>D6+D7</f>
-        <v/>
+        <f t="shared" ref="D4:F4" si="0">D6+D7</f>
+        <v>2905</v>
       </c>
       <c r="E4" s="11">
-        <f>E6+E7</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2415</v>
       </c>
       <c r="F4" s="11">
-        <f>F6+F7</f>
-        <v/>
-      </c>
-      <c r="G4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Según antigüedad</t>
-        </is>
-      </c>
-      <c r="B5" s="23" t="n"/>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="12" t="n"/>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="31" t="inlineStr">
-        <is>
-          <t>Vivienda nueva</t>
-        </is>
+        <f t="shared" si="0"/>
+        <v>2826</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="32">
         <f>SUM(C6:F6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="13" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C6" s="13">
         <v>452</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="13">
         <v>291</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="13">
         <v>315</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="13">
         <v>475</v>
       </c>
-      <c r="G6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="29" t="inlineStr">
-        <is>
-          <t>Vivienda segunda mano</t>
-        </is>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <f>SUM(C7:F7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="12" t="n">
+        <v>9686</v>
+      </c>
+      <c r="C7" s="12">
         <v>2621</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="12">
         <v>2614</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="12">
         <v>2100</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="12">
         <v>2351</v>
       </c>
-      <c r="G7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="25" t="inlineStr">
-        <is>
-          <t>Según nivel de protección</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="29" t="inlineStr">
-        <is>
-          <t>Vivienda libre</t>
-        </is>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <f>SUM(C9:F9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="12" t="n">
+        <v>10554</v>
+      </c>
+      <c r="C9" s="12">
         <v>2868</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="12">
         <v>2725</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>2298</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="12">
         <v>2663</v>
       </c>
-      <c r="G9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="31" t="inlineStr">
-        <is>
-          <t>Vivienda protegida</t>
-        </is>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="32">
         <f>SUM(C10:F10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="13" t="n">
+        <v>665</v>
+      </c>
+      <c r="C10" s="13">
         <v>205</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="13">
         <v>180</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="13">
         <v>117</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="13">
         <v>163</v>
       </c>
-      <c r="G10" s="2" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Ministerio de Transportes, Movilidad y Agenda Urbana.</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>